--- a/bin/excel/SpanishEnglish-CASA7.xlsx
+++ b/bin/excel/SpanishEnglish-CASA7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81E7390-8F8B-479F-9895-DF5A93B01B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACE399-D532-4074-BDDF-7D44EA0EF59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF467E6D-7F35-4086-96FA-64E3BEEE8E3B}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>conector</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>llave de lavabo</t>
   </si>
   <si>
-    <t>microondas</t>
-  </si>
-  <si>
     <t>escaleras de entrada</t>
   </si>
   <si>
@@ -218,13 +212,103 @@
   </si>
   <si>
     <t>photo frame</t>
+  </si>
+  <si>
+    <t>ken'ector</t>
+  </si>
+  <si>
+    <t>beis nokols</t>
+  </si>
+  <si>
+    <t>enveloup</t>
+  </si>
+  <si>
+    <t>mostach</t>
+  </si>
+  <si>
+    <t>fen gard</t>
+  </si>
+  <si>
+    <t>fridg</t>
+  </si>
+  <si>
+    <t>batfrum sink</t>
+  </si>
+  <si>
+    <t>facet</t>
+  </si>
+  <si>
+    <t>est'ers</t>
+  </si>
+  <si>
+    <t>i'ard</t>
+  </si>
+  <si>
+    <t>est'oresh rum</t>
+  </si>
+  <si>
+    <t>tufpest</t>
+  </si>
+  <si>
+    <t>tufbrosh</t>
+  </si>
+  <si>
+    <t>carpentry uorkshap</t>
+  </si>
+  <si>
+    <t>sodost</t>
+  </si>
+  <si>
+    <t>uindou bars</t>
+  </si>
+  <si>
+    <t>diner fork</t>
+  </si>
+  <si>
+    <t>nuus peiper</t>
+  </si>
+  <si>
+    <t>reizer</t>
+  </si>
+  <si>
+    <t>jer clieper</t>
+  </si>
+  <si>
+    <t>pauer strep</t>
+  </si>
+  <si>
+    <t>uain glass</t>
+  </si>
+  <si>
+    <t>foudo freim</t>
+  </si>
+  <si>
+    <t>cristmes tri</t>
+  </si>
+  <si>
+    <t>frizer</t>
+  </si>
+  <si>
+    <t>toilet sit</t>
+  </si>
+  <si>
+    <t>cotleri set</t>
+  </si>
+  <si>
+    <t>spr'ei barol</t>
+  </si>
+  <si>
+    <t>horno microondas</t>
+  </si>
+  <si>
+    <t>maicrouef oven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,14 +324,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BEC2B-87AB-4174-8D96-AE3FAEBD5962}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,97 +1003,97 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
